--- a/invoice.xlsx
+++ b/invoice.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CX36"/>
+  <dimension ref="A1:CX69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
         <v>_x0001__x0002__x0003_</v>
       </c>
       <c r="J2" t="str">
-        <v>421159306</v>
+        <v>421160613</v>
       </c>
       <c r="K2" t="str">
         <v>_x0010__x0011__x0004__x0012_</v>
@@ -474,7 +474,7 @@
 _x0008_</v>
       </c>
       <c r="Y2" t="str">
-        <v>04.07.2022</v>
+        <v>08.07.2022</v>
       </c>
       <c r="Z2" t="str" xml:space="preserve">
         <v xml:space="preserve">%_x000c_&amp;_x001b_'
@@ -762,155 +762,168 @@
         <v>C</v>
       </c>
       <c r="B8" t="str">
-        <v>96237</v>
+        <v>96304</v>
       </c>
       <c r="C8" t="str">
-        <v>*</v>
+        <v>_x0010__x000d_4_x000c_9_x0015__x0012_</v>
       </c>
       <c r="D8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E8" t="str">
+        <v>&lt;_x0015__x0011_</v>
+      </c>
+      <c r="F8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G8" t="str">
+        <v>_x000e__x000d__x0003__x000c__x000d_</v>
+      </c>
+      <c r="H8" t="str">
+        <v>)</v>
+      </c>
+      <c r="I8" t="str">
+        <v xml:space="preserve"> 24 *</v>
+      </c>
+      <c r="J8" t="str">
         <v>/</v>
       </c>
-      <c r="E8" t="str">
-        <v xml:space="preserve"> 12</v>
-      </c>
-      <c r="F8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H8" t="str">
+      <c r="K8" t="str">
+        <v xml:space="preserve"> 12 </v>
+      </c>
+      <c r="L8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M8" t="str">
         <v>D</v>
       </c>
-      <c r="I8" t="str">
-        <v xml:space="preserve"> 2 </v>
-      </c>
-      <c r="J8" t="str">
-        <v>,E_x0015_&amp;F</v>
-      </c>
-      <c r="K8" t="str">
-        <v>)</v>
-      </c>
-      <c r="L8" t="str">
-        <v xml:space="preserve"> 12</v>
-      </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="O8" t="str">
         <v>CAR</v>
       </c>
-      <c r="N8" t="str">
+      <c r="P8" t="str">
         <v xml:space="preserve">     1</v>
       </c>
-      <c r="O8" t="str">
-        <v xml:space="preserve"> 75</v>
-      </c>
-      <c r="P8" t="str">
-        <v xml:space="preserve"> 228.00</v>
-      </c>
       <c r="Q8" t="str">
-        <v>D</v>
+        <v xml:space="preserve"> 15</v>
       </c>
       <c r="R8" t="str">
-        <v xml:space="preserve">2 </v>
+        <v xml:space="preserve"> 224.00</v>
       </c>
       <c r="S8" t="str">
-        <v>_x0010_G_x000f_</v>
+        <v xml:space="preserve">1 </v>
       </c>
       <c r="T8" t="str">
-        <v>12*12</v>
+        <v>_x0010_E_x000f_</v>
       </c>
       <c r="U8" t="str">
-        <v>1,026.00</v>
+        <v>-201.60</v>
       </c>
       <c r="V8" t="str">
-        <v>-</v>
+        <v xml:space="preserve"> 0.00</v>
       </c>
       <c r="W8" t="str">
-        <v xml:space="preserve"> 0.00</v>
-      </c>
-      <c r="X8" t="str">
         <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v xml:space="preserve"> 765.43</v>
+        <v xml:space="preserve"> 150.40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>.16,074</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>3,158.4</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
       <c r="A11" t="str">
-        <v xml:space="preserve"> 00</v>
+        <v xml:space="preserve"> 0</v>
       </c>
       <c r="B11" t="str">
-        <v>96252</v>
+        <v>96307</v>
       </c>
       <c r="C11" t="str">
-        <v xml:space="preserve">12 </v>
+        <v>_x0004__x0015_F</v>
       </c>
       <c r="D11" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E11" t="str">
+        <v>G_x000d_4_x000c_9_x0015__x0012_</v>
+      </c>
+      <c r="F11" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G11" t="str">
+        <v>_x000e__x000d__x0003__x000c__x000d_</v>
+      </c>
+      <c r="H11" t="str" xml:space="preserve">
+        <v xml:space="preserve">H_x000c_=_x001a_
+_x0008_</v>
+      </c>
+      <c r="I11" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J11" t="str">
+        <v>_x0001_0_x001b_I</v>
+      </c>
+      <c r="K11" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L11" t="str">
+        <v>"_x001b_J_x0005_</v>
+      </c>
+      <c r="M11" t="str">
+        <v>1</v>
+      </c>
+      <c r="N11" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O11" t="str">
         <v>D</v>
       </c>
-      <c r="E11" t="str">
+      <c r="P11" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="R11" t="str">
+        <v xml:space="preserve">     1</v>
+      </c>
+      <c r="S11" t="str">
+        <v xml:space="preserve"> 25</v>
+      </c>
+      <c r="T11" t="str">
+        <v xml:space="preserve"> 224.00</v>
+      </c>
+      <c r="U11" t="str">
         <v xml:space="preserve">1 </v>
       </c>
-      <c r="F11" t="str">
-        <v>_x0003__x000e_$+</v>
-      </c>
-      <c r="G11" t="str">
-        <v>H0_x001b__x0002_</v>
-      </c>
-      <c r="H11" t="str">
-        <v>12*</v>
-      </c>
-      <c r="I11" t="str">
-        <v>H_x0014_&amp;_x001f_</v>
-      </c>
-      <c r="J11" t="str">
-        <v>CAR</v>
-      </c>
-      <c r="K11" t="str">
-        <v xml:space="preserve">     1</v>
-      </c>
-      <c r="L11" t="str">
-        <v xml:space="preserve"> 25</v>
-      </c>
-      <c r="M11" t="str">
-        <v xml:space="preserve"> 114.00</v>
-      </c>
-      <c r="N11" t="str">
-        <v>D</v>
-      </c>
-      <c r="O11" t="str">
-        <v xml:space="preserve">1 </v>
-      </c>
-      <c r="P11" t="str">
-        <v>_x0010_G_x000f_</v>
-      </c>
-      <c r="Q11" t="str">
-        <v>12*12</v>
-      </c>
-      <c r="R11" t="str">
-        <v>-171.00</v>
-      </c>
-      <c r="S11" t="str">
+      <c r="V11" t="str">
+        <v>_x0010_E_x000f_</v>
+      </c>
+      <c r="W11" t="str">
+        <v>-336.00</v>
+      </c>
+      <c r="X11" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
-      <c r="T11" t="str">
-        <v>14</v>
+      <c r="Y11" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v xml:space="preserve"> 329.00</v>
+        <v xml:space="preserve"> 250.67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2,679.0</v>
+        <v>5,264.0</v>
       </c>
     </row>
     <row r="14">
@@ -918,764 +931,1507 @@
         <v xml:space="preserve"> 0</v>
       </c>
       <c r="B14" t="str">
-        <v>96254</v>
+        <v>96304</v>
       </c>
       <c r="C14" t="str">
-        <v xml:space="preserve">12 </v>
+        <v>_x0010__x000d_4_x000c_9_x0015__x0012_</v>
       </c>
       <c r="D14" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E14" t="str">
+        <v>&lt;_x0015__x0011_</v>
+      </c>
+      <c r="F14" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G14" t="str">
+        <v>_x000e__x000d__x0003__x000c__x000d_</v>
+      </c>
+      <c r="H14" t="str">
+        <v>)</v>
+      </c>
+      <c r="I14" t="str">
+        <v xml:space="preserve"> 24 *</v>
+      </c>
+      <c r="J14" t="str">
+        <v>/</v>
+      </c>
+      <c r="K14" t="str">
+        <v xml:space="preserve"> 12 </v>
+      </c>
+      <c r="L14" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M14" t="str">
         <v>D</v>
       </c>
-      <c r="E14" t="str">
+      <c r="N14" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="O14" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="P14" t="str">
+        <v xml:space="preserve">     1</v>
+      </c>
+      <c r="Q14" t="str">
+        <v xml:space="preserve"> 75</v>
+      </c>
+      <c r="R14" t="str">
+        <v xml:space="preserve"> 224.00</v>
+      </c>
+      <c r="S14" t="str">
         <v xml:space="preserve">1 </v>
       </c>
-      <c r="F14" t="str">
-        <v>"_x000d__x000c__x0012_</v>
-      </c>
-      <c r="G14" t="str">
-        <v>H0_x001b__x0002_</v>
-      </c>
-      <c r="H14" t="str">
-        <v>12*</v>
-      </c>
-      <c r="I14" t="str">
-        <v>H_x0014_&amp;_x001f_</v>
-      </c>
-      <c r="J14" t="str">
-        <v>CAR</v>
-      </c>
-      <c r="K14" t="str">
-        <v xml:space="preserve">     1</v>
-      </c>
-      <c r="L14" t="str">
-        <v xml:space="preserve"> 50</v>
-      </c>
-      <c r="M14" t="str">
-        <v xml:space="preserve"> 114.00</v>
-      </c>
-      <c r="N14" t="str">
-        <v>D</v>
-      </c>
-      <c r="O14" t="str">
-        <v xml:space="preserve">1 </v>
-      </c>
-      <c r="P14" t="str">
-        <v>_x0010_G_x000f_</v>
-      </c>
-      <c r="Q14" t="str">
-        <v>12*12</v>
-      </c>
-      <c r="R14" t="str">
-        <v>-342.00</v>
-      </c>
-      <c r="S14" t="str">
+      <c r="T14" t="str">
+        <v>_x0010_E_x000f_</v>
+      </c>
+      <c r="U14" t="str">
+        <v>1,008.00</v>
+      </c>
+      <c r="V14" t="str">
+        <v>-</v>
+      </c>
+      <c r="W14" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
-      <c r="T14" t="str">
-        <v>14</v>
+      <c r="X14" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v xml:space="preserve"> 658.00</v>
+        <v xml:space="preserve"> 752.00</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>5,358.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>.15,792</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
       <c r="A17" t="str">
-        <v xml:space="preserve"> 0</v>
+        <v xml:space="preserve"> 00</v>
       </c>
       <c r="B17" t="str">
-        <v>96259</v>
+        <v>96307</v>
       </c>
       <c r="C17" t="str">
-        <v>I&amp;_x0015_3</v>
+        <v>_x0004__x0015_F</v>
       </c>
       <c r="D17" t="str">
-        <v xml:space="preserve"> - </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E17" t="str">
-        <v>_x000c__x0016__x001c__x0015_3</v>
+        <v>G_x000d_4_x000c_9_x0015__x0012_</v>
       </c>
       <c r="F17" t="str">
-        <v xml:space="preserve">12 </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G17" t="str">
+        <v>_x000e__x000d__x0003__x000c__x000d_</v>
+      </c>
+      <c r="H17" t="str" xml:space="preserve">
+        <v xml:space="preserve">H_x000c_=_x001a_
+_x0008_</v>
+      </c>
+      <c r="I17" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J17" t="str">
+        <v>_x0001_0_x001b_I</v>
+      </c>
+      <c r="K17" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L17" t="str">
+        <v>"_x001b_J_x0005_</v>
+      </c>
+      <c r="M17" t="str">
+        <v>1</v>
+      </c>
+      <c r="N17" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O17" t="str">
         <v>D</v>
       </c>
-      <c r="H17" t="str">
+      <c r="P17" t="str">
         <v>1</v>
       </c>
-      <c r="I17" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J17" t="str">
-        <v>4_x000c__x0011_</v>
-      </c>
-      <c r="K17" t="str">
-        <v>H0_x001b__x0002_</v>
-      </c>
-      <c r="L17" t="str">
-        <v>12*</v>
-      </c>
-      <c r="M17" t="str">
-        <v>H_x0014_&amp;_x001f_</v>
-      </c>
-      <c r="N17" t="str">
+      <c r="Q17" t="str">
         <v>CAR</v>
       </c>
-      <c r="O17" t="str">
+      <c r="R17" t="str">
         <v xml:space="preserve">     1</v>
       </c>
-      <c r="P17" t="str">
-        <v xml:space="preserve"> 25</v>
-      </c>
-      <c r="Q17" t="str">
-        <v xml:space="preserve"> 114.00</v>
-      </c>
-      <c r="R17" t="str">
-        <v>D</v>
-      </c>
       <c r="S17" t="str">
+        <v xml:space="preserve"> 50</v>
+      </c>
+      <c r="T17" t="str">
+        <v xml:space="preserve"> 224.00</v>
+      </c>
+      <c r="U17" t="str">
         <v xml:space="preserve">1 </v>
       </c>
-      <c r="T17" t="str">
-        <v>_x0010_G_x000f_</v>
-      </c>
-      <c r="U17" t="str">
-        <v>12*12</v>
-      </c>
       <c r="V17" t="str">
-        <v>-171.00</v>
+        <v>_x0010_E_x000f_</v>
       </c>
       <c r="W17" t="str">
+        <v>-672.00</v>
+      </c>
+      <c r="X17" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
-      <c r="X17" t="str">
-        <v>14</v>
+      <c r="Y17" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v xml:space="preserve"> 329.00</v>
+        <v xml:space="preserve"> 501.33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2,679.0</v>
+        <v>.10,528</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v xml:space="preserve"> 0</v>
+        <v xml:space="preserve"> 00</v>
       </c>
       <c r="B20" t="str">
-        <v>96304</v>
+        <v>96237</v>
       </c>
       <c r="C20" t="str">
-        <v>_x0010__x000d_4_x000c_9_x0015__x0012_</v>
+        <v>*</v>
       </c>
       <c r="D20" t="str">
-        <v xml:space="preserve"> </v>
+        <v>/</v>
       </c>
       <c r="E20" t="str">
-        <v>&lt;_x0015__x0011_</v>
+        <v xml:space="preserve"> 12</v>
       </c>
       <c r="F20" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="G20" t="str">
-        <v>_x000e__x000d__x0003__x000c__x000d_</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H20" t="str">
+        <v>D</v>
+      </c>
+      <c r="I20" t="str">
+        <v xml:space="preserve"> 2 </v>
+      </c>
+      <c r="J20" t="str">
+        <v>,K_x0015_&amp;I</v>
+      </c>
+      <c r="K20" t="str">
         <v>)</v>
       </c>
-      <c r="I20" t="str">
-        <v xml:space="preserve"> 24 *</v>
-      </c>
-      <c r="J20" t="str">
-        <v>/</v>
-      </c>
-      <c r="K20" t="str">
-        <v xml:space="preserve"> 12 </v>
-      </c>
       <c r="L20" t="str">
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve"> 12</v>
       </c>
       <c r="M20" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="N20" t="str">
+        <v xml:space="preserve">     1</v>
+      </c>
+      <c r="O20" t="str">
+        <v xml:space="preserve"> 75</v>
+      </c>
+      <c r="P20" t="str">
+        <v xml:space="preserve"> 228.00</v>
+      </c>
+      <c r="Q20" t="str">
         <v>D</v>
       </c>
-      <c r="N20" t="str">
-        <v xml:space="preserve"> 1</v>
-      </c>
-      <c r="O20" t="str">
-        <v>CAR</v>
-      </c>
-      <c r="P20" t="str">
-        <v xml:space="preserve">     1</v>
-      </c>
-      <c r="Q20" t="str">
-        <v xml:space="preserve"> 20</v>
-      </c>
       <c r="R20" t="str">
-        <v xml:space="preserve"> 224.00</v>
+        <v xml:space="preserve">2 </v>
       </c>
       <c r="S20" t="str">
-        <v xml:space="preserve">1 </v>
+        <v>_x0010_E_x000f_</v>
       </c>
       <c r="T20" t="str">
-        <v>_x0010_G_x000f_</v>
+        <v>12*12</v>
       </c>
       <c r="U20" t="str">
-        <v>-268.80</v>
+        <v>1,026.00</v>
       </c>
       <c r="V20" t="str">
+        <v>-</v>
+      </c>
+      <c r="W20" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
-      <c r="W20" t="str">
+      <c r="X20" t="str">
         <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v xml:space="preserve"> 200.53</v>
+        <v xml:space="preserve"> 765.43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>4,211.2</v>
-      </c>
-    </row>
-    <row r="23" xml:space="preserve">
+        <v>.16,074</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="str">
-        <v xml:space="preserve"> 0</v>
+        <v xml:space="preserve"> 00</v>
       </c>
       <c r="B23" t="str">
-        <v>96307</v>
+        <v>96245</v>
       </c>
       <c r="C23" t="str">
-        <v>_x0004__x0015_J</v>
+        <v>L_x000e_*_x000d_</v>
       </c>
       <c r="D23" t="str">
-        <v xml:space="preserve"> </v>
+        <v>-</v>
       </c>
       <c r="E23" t="str">
-        <v>H_x000d_4_x000c_9_x0015__x0012_</v>
+        <v>M_x000c_$3_x000e__x0014_+_x0008_</v>
       </c>
       <c r="F23" t="str">
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">12 </v>
       </c>
       <c r="G23" t="str">
-        <v>_x000e__x000d__x0003__x000c__x000d_</v>
-      </c>
-      <c r="H23" t="str" xml:space="preserve">
-        <v xml:space="preserve">K_x000c_=_x001a_
-_x0008_</v>
+        <v>D</v>
+      </c>
+      <c r="H23" t="str">
+        <v>1</v>
       </c>
       <c r="I23" t="str">
-        <v xml:space="preserve"> </v>
+        <v>_x0004_AN_x0006_</v>
       </c>
       <c r="J23" t="str">
-        <v>_x0001_0_x001b_F</v>
+        <v>G0_x001b__x0002_</v>
       </c>
       <c r="K23" t="str">
-        <v xml:space="preserve"> </v>
+        <v>12*</v>
       </c>
       <c r="L23" t="str">
-        <v>"_x001b_L_x0005_</v>
+        <v>G_x0014_&amp;_x001f_</v>
       </c>
       <c r="M23" t="str">
-        <v>1</v>
+        <v>CAR</v>
       </c>
       <c r="N23" t="str">
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">     1</v>
       </c>
       <c r="O23" t="str">
+        <v xml:space="preserve"> 25</v>
+      </c>
+      <c r="P23" t="str">
+        <v xml:space="preserve"> 114.00</v>
+      </c>
+      <c r="Q23" t="str">
         <v>D</v>
       </c>
-      <c r="P23" t="str">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="str">
-        <v>CAR</v>
-      </c>
       <c r="R23" t="str">
-        <v xml:space="preserve">     1</v>
+        <v xml:space="preserve">1 </v>
       </c>
       <c r="S23" t="str">
-        <v xml:space="preserve"> 50</v>
+        <v>_x0010_E_x000f_</v>
       </c>
       <c r="T23" t="str">
-        <v xml:space="preserve"> 224.00</v>
+        <v>12*12</v>
       </c>
       <c r="U23" t="str">
-        <v xml:space="preserve">1 </v>
+        <v>-171.00</v>
       </c>
       <c r="V23" t="str">
-        <v>_x0010_G_x000f_</v>
+        <v xml:space="preserve"> 0.00</v>
       </c>
       <c r="W23" t="str">
-        <v>-672.00</v>
-      </c>
-      <c r="X23" t="str">
-        <v xml:space="preserve"> 0.00</v>
-      </c>
-      <c r="Y23" t="str">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v xml:space="preserve"> 501.33</v>
+        <v xml:space="preserve"> 329.00</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>.10,528</v>
+        <v>2,679.0</v>
       </c>
     </row>
     <row r="26" xml:space="preserve">
       <c r="A26" t="str">
-        <v xml:space="preserve"> 00</v>
-      </c>
-      <c r="B26" t="str" xml:space="preserve">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="B26" t="str">
+        <v>96246</v>
+      </c>
+      <c r="C26" t="str">
+        <v>-</v>
+      </c>
+      <c r="D26" t="str">
+        <v>M_x000c_$3_x000e__x0014_+_x0008_</v>
+      </c>
+      <c r="E26" t="str">
+        <v xml:space="preserve">12 </v>
+      </c>
+      <c r="F26" t="str">
+        <v>D</v>
+      </c>
+      <c r="G26" t="str">
+        <v>1</v>
+      </c>
+      <c r="H26" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010_
+,_x0008__x0004__x000f_</v>
+      </c>
+      <c r="I26" t="str">
+        <v>G0_x001b__x0002_</v>
+      </c>
+      <c r="J26" t="str">
+        <v>12*</v>
+      </c>
+      <c r="K26" t="str">
+        <v>G_x0014_&amp;_x001f_</v>
+      </c>
+      <c r="L26" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M26" t="str">
+        <v xml:space="preserve">     1</v>
+      </c>
+      <c r="N26" t="str">
+        <v xml:space="preserve"> 50</v>
+      </c>
+      <c r="O26" t="str">
+        <v xml:space="preserve"> 114.00</v>
+      </c>
+      <c r="P26" t="str">
+        <v>D</v>
+      </c>
+      <c r="Q26" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="R26" t="str">
+        <v>_x0010_E_x000f_</v>
+      </c>
+      <c r="S26" t="str">
+        <v>12*12</v>
+      </c>
+      <c r="T26" t="str">
+        <v>-342.00</v>
+      </c>
+      <c r="U26" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="V26" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v xml:space="preserve"> 658.00</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>5,358.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="B29" t="str">
+        <v>96252</v>
+      </c>
+      <c r="C29" t="str">
+        <v xml:space="preserve">12 </v>
+      </c>
+      <c r="D29" t="str">
+        <v>D</v>
+      </c>
+      <c r="E29" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="F29" t="str">
+        <v>_x0003__x000e_$+</v>
+      </c>
+      <c r="G29" t="str">
+        <v>G0_x001b__x0002_</v>
+      </c>
+      <c r="H29" t="str">
+        <v>12*</v>
+      </c>
+      <c r="I29" t="str">
+        <v>G_x0014_&amp;_x001f_</v>
+      </c>
+      <c r="J29" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="K29" t="str">
+        <v xml:space="preserve">     1</v>
+      </c>
+      <c r="L29" t="str">
+        <v xml:space="preserve"> 25</v>
+      </c>
+      <c r="M29" t="str">
+        <v xml:space="preserve"> 114.00</v>
+      </c>
+      <c r="N29" t="str">
+        <v>D</v>
+      </c>
+      <c r="O29" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="P29" t="str">
+        <v>_x0010_E_x000f_</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>12*12</v>
+      </c>
+      <c r="R29" t="str">
+        <v>-171.00</v>
+      </c>
+      <c r="S29" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="T29" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v xml:space="preserve"> 329.00</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2,679.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="B32" t="str">
+        <v>96253</v>
+      </c>
+      <c r="C32" t="str">
+        <v xml:space="preserve">12 </v>
+      </c>
+      <c r="D32" t="str">
+        <v>D</v>
+      </c>
+      <c r="E32" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="F32" t="str">
+        <v>_x0018__x0004__x0016__x001c__x0015__x000f_</v>
+      </c>
+      <c r="G32" t="str">
+        <v>G0_x001b__x0002_</v>
+      </c>
+      <c r="H32" t="str">
+        <v>12*</v>
+      </c>
+      <c r="I32" t="str">
+        <v>G_x0014_&amp;_x001f_</v>
+      </c>
+      <c r="J32" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="K32" t="str">
+        <v xml:space="preserve">     1</v>
+      </c>
+      <c r="L32" t="str">
+        <v xml:space="preserve"> 75</v>
+      </c>
+      <c r="M32" t="str">
+        <v xml:space="preserve"> 114.00</v>
+      </c>
+      <c r="N32" t="str">
+        <v>D</v>
+      </c>
+      <c r="O32" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="P32" t="str">
+        <v>_x0010_E_x000f_</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>12*12</v>
+      </c>
+      <c r="R32" t="str">
+        <v>-513.00</v>
+      </c>
+      <c r="S32" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="T32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v xml:space="preserve"> 382.71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>8,037.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="B35" t="str">
+        <v>96254</v>
+      </c>
+      <c r="C35" t="str">
+        <v xml:space="preserve">12 </v>
+      </c>
+      <c r="D35" t="str">
+        <v>D</v>
+      </c>
+      <c r="E35" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="F35" t="str">
+        <v>"_x000d__x000c__x0012_</v>
+      </c>
+      <c r="G35" t="str">
+        <v>G0_x001b__x0002_</v>
+      </c>
+      <c r="H35" t="str">
+        <v>12*</v>
+      </c>
+      <c r="I35" t="str">
+        <v>G_x0014_&amp;_x001f_</v>
+      </c>
+      <c r="J35" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="K35" t="str">
+        <v xml:space="preserve">     1</v>
+      </c>
+      <c r="L35" t="str">
+        <v xml:space="preserve"> 50</v>
+      </c>
+      <c r="M35" t="str">
+        <v xml:space="preserve"> 114.00</v>
+      </c>
+      <c r="N35" t="str">
+        <v>D</v>
+      </c>
+      <c r="O35" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="P35" t="str">
+        <v>_x0010_E_x000f_</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>12*12</v>
+      </c>
+      <c r="R35" t="str">
+        <v>-342.00</v>
+      </c>
+      <c r="S35" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="T35" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v xml:space="preserve"> 658.00</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>5,358.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="B38" t="str">
+        <v>96259</v>
+      </c>
+      <c r="C38" t="str">
+        <v>O&amp;_x0015_3</v>
+      </c>
+      <c r="D38" t="str">
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="E38" t="str">
+        <v>_x000c__x0016__x001c__x0015_3</v>
+      </c>
+      <c r="F38" t="str">
+        <v xml:space="preserve">12 </v>
+      </c>
+      <c r="G38" t="str">
+        <v>D</v>
+      </c>
+      <c r="H38" t="str">
+        <v>1</v>
+      </c>
+      <c r="I38" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J38" t="str">
+        <v>4_x000c__x0011_</v>
+      </c>
+      <c r="K38" t="str">
+        <v>G0_x001b__x0002_</v>
+      </c>
+      <c r="L38" t="str">
+        <v>12*</v>
+      </c>
+      <c r="M38" t="str">
+        <v>G_x0014_&amp;_x001f_</v>
+      </c>
+      <c r="N38" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="O38" t="str">
+        <v xml:space="preserve">     1</v>
+      </c>
+      <c r="P38" t="str">
+        <v xml:space="preserve"> 50</v>
+      </c>
+      <c r="Q38" t="str">
+        <v xml:space="preserve"> 114.00</v>
+      </c>
+      <c r="R38" t="str">
+        <v>D</v>
+      </c>
+      <c r="S38" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="T38" t="str">
+        <v>_x0010_E_x000f_</v>
+      </c>
+      <c r="U38" t="str">
+        <v>12*12</v>
+      </c>
+      <c r="V38" t="str">
+        <v>-342.00</v>
+      </c>
+      <c r="W38" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="X38" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v xml:space="preserve"> 658.00</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>5,358.0</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="B41" t="str" xml:space="preserve">
         <v xml:space="preserve">?
 _x000e_'34_x0008_</v>
       </c>
-      <c r="C26" t="str">
-        <v>2,650.80</v>
-      </c>
-      <c r="D26" t="str">
+      <c r="C41" t="str">
+        <v>7,518.60</v>
+      </c>
+      <c r="D41" t="str">
         <v>-</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E41" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>2,783.29</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>.41,529</v>
-      </c>
-    </row>
-    <row r="29" xml:space="preserve">
-      <c r="A29" t="str">
-        <v xml:space="preserve"> 20</v>
-      </c>
-      <c r="B29" t="str" xml:space="preserve">
+    <row r="42">
+      <c r="A42" t="str">
+        <v>8,429.11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>117,791</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v xml:space="preserve"> .40</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>205/050/743</v>
+      </c>
+      <c r="B46" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="C46" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0004__x0005__x0006__x0007__x0008_	
+</v>
+      </c>
+      <c r="D46" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x000c_
+_x000d__x000e__x000f_</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0011__x0012__x0005__x0013__x0014_	
+</v>
+      </c>
+      <c r="B47" t="str">
+        <v>2</v>
+      </c>
+      <c r="C47" t="str">
+        <v>/</v>
+      </c>
+      <c r="D47" t="str">
+        <v>2</v>
+      </c>
+      <c r="E47" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="F47" t="str">
+        <v>_x0004__x0005__x0006_</v>
+      </c>
+      <c r="G47" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0007__x0008__x0004_	
+_x0008_</v>
+      </c>
+      <c r="H47" t="str">
+        <v>_x000b__x0003__x000c__x000d__x000e__x000f_</v>
+      </c>
+      <c r="I47" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="J47" t="str">
+        <v>421160613</v>
+      </c>
+      <c r="K47" t="str">
+        <v>_x0010__x0011__x0004__x0012_</v>
+      </c>
+      <c r="L47" t="str">
+        <v>_x0013__x0014__x0015__x0016__x0017__x0008_</v>
+      </c>
+      <c r="M47" t="str">
+        <v>_x0018__x0019__x000c__x000f_</v>
+      </c>
+      <c r="N47" t="str">
+        <v>_x0010__x001a__x001b__x001c__x0005_</v>
+      </c>
+      <c r="O47" t="str">
+        <v>_x001d__x0003__x000e__x0014__x0005_</v>
+      </c>
+      <c r="P47" t="str">
+        <v>_x000e__x001c__x001e__x0017__x000c__x0002_</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>-</v>
+      </c>
+      <c r="R47" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0015__x001f__x000e__x001c_ 
+_x0008_</v>
+      </c>
+      <c r="S47" t="str">
+        <v>!</v>
+      </c>
+      <c r="T47" t="str">
+        <v>048\590050-590051</v>
+      </c>
+      <c r="U47" t="str">
+        <v>"_x0011__x000e__x000f_</v>
+      </c>
+      <c r="V47" t="str">
+        <v>048\590052</v>
+      </c>
+      <c r="W47" t="str">
+        <v>_x0019__x000c__x0011_</v>
+      </c>
+      <c r="X47" t="str" xml:space="preserve">
+        <v xml:space="preserve">;_x001c_ 
+_x0008_</v>
+      </c>
+      <c r="Y47" t="str">
+        <v>_x0001_+_x0008_</v>
+      </c>
+      <c r="Z47" t="str">
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AA47" t="str" xml:space="preserve">
+        <v xml:space="preserve">;_x001c_ 
+_x0008_</v>
+      </c>
+      <c r="AB47" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b_-._x000c_
+_x0008_</v>
+      </c>
+      <c r="AC47" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x000c__x0014_0
+_x0008_</v>
+      </c>
+      <c r="AD47" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0015_'9
+_x0008_</v>
+      </c>
+      <c r="AE47" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0004_0_x001e_
+_x0008_</v>
+      </c>
+      <c r="AF47" t="str">
+        <v>_x0004_0+</v>
+      </c>
+      <c r="AG47" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;&amp;=$_x001e_'
+_x0008_</v>
+      </c>
+      <c r="AH47" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0001_ &gt;
+_x0008_</v>
+      </c>
+      <c r="AI47" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0001_ &gt;
+_x0008_</v>
+      </c>
+      <c r="AJ47" t="str">
+        <v>?_x000f__x000e_@4_x0008_</v>
+      </c>
+      <c r="AK47" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0014__x0017__x0004_A
+_x0008_</v>
+      </c>
+      <c r="AL47" t="str">
+        <v>%</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="A48" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0014__x0017__x0004_A
+_x0008_</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str" xml:space="preserve">
+        <v xml:space="preserve">?
+_x000e_'3_x0008_</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>2_x0005__x000e__x0012_</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>C</v>
+      </c>
+      <c r="B53" t="str">
+        <v>96237</v>
+      </c>
+      <c r="C53" t="str">
+        <v>*</v>
+      </c>
+      <c r="D53" t="str">
+        <v>/</v>
+      </c>
+      <c r="E53" t="str">
+        <v xml:space="preserve"> 12</v>
+      </c>
+      <c r="F53" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G53" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H53" t="str">
+        <v>D</v>
+      </c>
+      <c r="I53" t="str">
+        <v xml:space="preserve"> 2 </v>
+      </c>
+      <c r="J53" t="str">
+        <v>,K_x0015_&amp;I</v>
+      </c>
+      <c r="K53" t="str">
+        <v>)</v>
+      </c>
+      <c r="L53" t="str">
+        <v xml:space="preserve"> 12</v>
+      </c>
+      <c r="M53" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="N53" t="str">
+        <v xml:space="preserve">     1</v>
+      </c>
+      <c r="O53" t="str">
+        <v xml:space="preserve"> 100</v>
+      </c>
+      <c r="P53" t="str">
+        <v xml:space="preserve"> 228.00</v>
+      </c>
+      <c r="Q53" t="str">
+        <v>D</v>
+      </c>
+      <c r="R53" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="S53" t="str">
+        <v>_x0010_E_x000f_</v>
+      </c>
+      <c r="T53" t="str">
+        <v>12*12</v>
+      </c>
+      <c r="U53" t="str">
+        <v>1,368.00</v>
+      </c>
+      <c r="V53" t="str">
+        <v>-</v>
+      </c>
+      <c r="W53" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="X53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>1,020.57</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>.21,432</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v xml:space="preserve"> 00</v>
+      </c>
+      <c r="B56" t="str">
+        <v>96254</v>
+      </c>
+      <c r="C56" t="str">
+        <v xml:space="preserve">12 </v>
+      </c>
+      <c r="D56" t="str">
+        <v>D</v>
+      </c>
+      <c r="E56" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="F56" t="str">
+        <v>"_x000d__x000c__x0012_</v>
+      </c>
+      <c r="G56" t="str">
+        <v>G0_x001b__x0002_</v>
+      </c>
+      <c r="H56" t="str">
+        <v>12*</v>
+      </c>
+      <c r="I56" t="str">
+        <v>G_x0014_&amp;_x001f_</v>
+      </c>
+      <c r="J56" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="K56" t="str">
+        <v xml:space="preserve">     1</v>
+      </c>
+      <c r="L56" t="str">
+        <v xml:space="preserve"> 100</v>
+      </c>
+      <c r="M56" t="str">
+        <v xml:space="preserve"> 114.00</v>
+      </c>
+      <c r="N56" t="str">
+        <v>D</v>
+      </c>
+      <c r="O56" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="P56" t="str">
+        <v>_x0010_E_x000f_</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>12*12</v>
+      </c>
+      <c r="R56" t="str">
+        <v>-684.00</v>
+      </c>
+      <c r="S56" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="T56" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>1,316.00</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>.10,716</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v xml:space="preserve"> 00</v>
+      </c>
+      <c r="B59" t="str">
+        <v>96259</v>
+      </c>
+      <c r="C59" t="str">
+        <v>O&amp;_x0015_3</v>
+      </c>
+      <c r="D59" t="str">
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="E59" t="str">
+        <v>_x000c__x0016__x001c__x0015_3</v>
+      </c>
+      <c r="F59" t="str">
+        <v xml:space="preserve">12 </v>
+      </c>
+      <c r="G59" t="str">
+        <v>D</v>
+      </c>
+      <c r="H59" t="str">
+        <v>1</v>
+      </c>
+      <c r="I59" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J59" t="str">
+        <v>4_x000c__x0011_</v>
+      </c>
+      <c r="K59" t="str">
+        <v>G0_x001b__x0002_</v>
+      </c>
+      <c r="L59" t="str">
+        <v>12*</v>
+      </c>
+      <c r="M59" t="str">
+        <v>G_x0014_&amp;_x001f_</v>
+      </c>
+      <c r="N59" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="O59" t="str">
+        <v xml:space="preserve">     1</v>
+      </c>
+      <c r="P59" t="str">
+        <v xml:space="preserve"> 50</v>
+      </c>
+      <c r="Q59" t="str">
+        <v xml:space="preserve"> 114.00</v>
+      </c>
+      <c r="R59" t="str">
+        <v>D</v>
+      </c>
+      <c r="S59" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="T59" t="str">
+        <v>_x0010_E_x000f_</v>
+      </c>
+      <c r="U59" t="str">
+        <v>12*12</v>
+      </c>
+      <c r="V59" t="str">
+        <v>-342.00</v>
+      </c>
+      <c r="W59" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="X59" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v xml:space="preserve"> 658.00</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>5,358.0</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="A62" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="B62" t="str" xml:space="preserve">
+        <v xml:space="preserve">?
+_x000e_'34_x0008_</v>
+      </c>
+      <c r="C62" t="str">
+        <v>7,518.60</v>
+      </c>
+      <c r="D62" t="str">
+        <v>-</v>
+      </c>
+      <c r="E62" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>8,429.11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>117,791</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="A65" t="str">
+        <v xml:space="preserve"> .40</v>
+      </c>
+      <c r="B65" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010__x001f__x000e_A_x0014_
 _x0008_</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C65" t="str">
         <v>-</v>
       </c>
-      <c r="D29" t="str" xml:space="preserve">
+      <c r="D65" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010_'&amp;_x001e_'
 _x0008_</v>
       </c>
-      <c r="E29" t="str" xml:space="preserve">
+      <c r="E65" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010_
-_x000e_1F</v>
-      </c>
-      <c r="F29" t="str" xml:space="preserve">
+_x000e_1I</v>
+      </c>
+      <c r="F65" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010__x0011__x0004_	
 _x0008_,</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G65" t="str">
         <v>-</v>
       </c>
-      <c r="H29" t="str">
+      <c r="H65" t="str">
         <v>_x000b_-_x0015_3</v>
       </c>
-      <c r="I29" t="str">
-        <v>_x0004__x0015_J</v>
-      </c>
-      <c r="J29" t="str" xml:space="preserve">
+      <c r="I65" t="str">
+        <v>_x0004__x0015_F</v>
+      </c>
+      <c r="J65" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010_
-_x000c_G_x001e__x0005_</v>
-      </c>
-      <c r="K29" t="str">
+_x000c_E_x001e__x0005_</v>
+      </c>
+      <c r="K65" t="str">
         <v>(_x001f_</v>
       </c>
-      <c r="L29" t="str">
+      <c r="L65" t="str">
         <v>_x0007__x000c_+</v>
       </c>
-      <c r="M29" t="str">
+      <c r="M65" t="str">
         <v>.</v>
       </c>
-      <c r="N29" t="str" xml:space="preserve">
-        <v xml:space="preserve">(_x0017_E&gt;$
-_x0008_</v>
-      </c>
-      <c r="O29" t="str" xml:space="preserve">
+      <c r="N65" t="str" xml:space="preserve">
+        <v xml:space="preserve">(_x0017_K&gt;$
+_x0008_</v>
+      </c>
+      <c r="O65" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010__x0011__x0004_	
 _x0008_</v>
       </c>
-      <c r="P29" t="str">
+      <c r="P65" t="str">
         <v>-</v>
       </c>
-      <c r="Q29" t="str">
-        <v>_x0004__x0015_J</v>
-      </c>
-      <c r="R29" t="str" xml:space="preserve">
+      <c r="Q65" t="str">
+        <v>_x0004__x0015_F</v>
+      </c>
+      <c r="R65" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010_
-_x000c_G_x001e__x0005_</v>
-      </c>
-      <c r="S29" t="str">
+_x000c_E_x001e__x0005_</v>
+      </c>
+      <c r="S65" t="str">
         <v>(_x001f_</v>
       </c>
-      <c r="T29" t="str">
+      <c r="T65" t="str">
         <v>C_x0004__x001f_</v>
       </c>
-      <c r="U29" t="str">
+      <c r="U65" t="str">
         <v>_x000e_=_x000d__x000e__x0016_$_x001c__x0005_</v>
       </c>
-      <c r="V29" t="str">
-        <v>-0F</v>
-      </c>
-      <c r="W29" t="str">
-        <v>_x0007__x000e_=$M_x0008_</v>
-      </c>
-      <c r="X29" t="str">
+      <c r="V65" t="str">
+        <v>-0I</v>
+      </c>
+      <c r="W65" t="str">
+        <v>_x0007__x000e_=$P_x0008_</v>
+      </c>
+      <c r="X65" t="str">
         <v>#_x0017__x0003__x000e__x000d_</v>
       </c>
-      <c r="Y29" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0015_.N 
-_x0008_</v>
-      </c>
-      <c r="Z29" t="str" xml:space="preserve">
+      <c r="Y65" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0015_.Q 
+_x0008_</v>
+      </c>
+      <c r="Z65" t="str" xml:space="preserve">
         <v xml:space="preserve">7,-'
 _x0008_</v>
       </c>
-      <c r="AA29" t="str">
+      <c r="AA65" t="str">
         <v>_x000e_=_x0015_&amp;_x001f_</v>
       </c>
-      <c r="AB29" t="str">
+      <c r="AB65" t="str">
         <v>_x000e__x0005_,</v>
       </c>
-      <c r="AC29" t="str">
-        <v>O_x000d__x0004_$_x0017_</v>
-      </c>
-      <c r="AD29" t="str">
-        <v>H_x0015_&amp;_x001f_</v>
-      </c>
-      <c r="AE29" t="str">
+      <c r="AC65" t="str">
+        <v>R_x000d__x0004_$_x0017_</v>
+      </c>
+      <c r="AD65" t="str">
+        <v>G_x0015_&amp;_x001f_</v>
+      </c>
+      <c r="AE65" t="str">
         <v>(_x0005_</v>
       </c>
-      <c r="AF29" t="str">
+      <c r="AF65" t="str">
         <v>.</v>
       </c>
-      <c r="AG29" t="str">
-        <v>_x0003__x000e_P_x0008_</v>
-      </c>
-      <c r="AH29" t="str">
-        <v>4</v>
-      </c>
-      <c r="AI29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AJ29" t="str">
+      <c r="AG65" t="str">
+        <v>_x0003__x000e_S_x0008_</v>
+      </c>
+      <c r="AH65" t="str">
         <v>_x000e__x0012__x0004__x0002_</v>
       </c>
-      <c r="AK29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AL29" t="str">
-        <v>7,_x0004_	_x001f_</v>
-      </c>
-      <c r="AM29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AN29" t="str">
-        <v>Q_x0004_ _x0005_</v>
-      </c>
-      <c r="AO29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AP29" t="str">
-        <v>H_x0015__x001c_3</v>
-      </c>
-      <c r="AQ29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AR29" t="str">
-        <v>7,_x0004_	_x001f_,</v>
-      </c>
-      <c r="AS29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AT29" t="str">
-        <v>_x0010_0_x001e__x000d_,</v>
-      </c>
-      <c r="AU29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AV29" t="str">
-        <v>H6_x000e_'_x001e_'R,</v>
-      </c>
-      <c r="AW29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AX29" t="str" xml:space="preserve">
+      <c r="AI65" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ65" t="str">
+        <v>7_x000c_0I_x0003__x0008_</v>
+      </c>
+      <c r="AK65" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AL65" t="str">
+        <v>T_x0004_ _x0005_</v>
+      </c>
+      <c r="AM65" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AN65" t="str">
+        <v>G_x0015__x001c_3</v>
+      </c>
+      <c r="AO65" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AP65" t="str">
+        <v>7_x000c_0_x001e__x000d_,</v>
+      </c>
+      <c r="AQ65" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AR65" t="str">
+        <v>-._x0008_,,</v>
+      </c>
+      <c r="AS65" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AT65" t="str">
+        <v>G6_x000e_'0_x0014_+,</v>
+      </c>
+      <c r="AU65" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AV65" t="str" xml:space="preserve">
         <v xml:space="preserve">;
 _x0008_</v>
       </c>
-      <c r="AY29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AZ29" t="str">
-        <v>7_x000c_0F_x0003__x0008_,</v>
-      </c>
-      <c r="BA29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BB29" t="str">
-        <v>-._x0008_,</v>
-      </c>
-      <c r="BC29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BD29" t="str">
-        <v>S_x001a__x000f_</v>
-      </c>
-      <c r="BE29" t="str">
+      <c r="AW65" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AX65" t="str">
+        <v>_x0004_	_x001f__x0010_0_x0014_+,</v>
+      </c>
+      <c r="AY65" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AZ65" t="str">
+        <v>_x0010_6_x000e__x0005_</v>
+      </c>
+      <c r="BA65" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BB65" t="str">
+        <v>U_x001a__x000f_</v>
+      </c>
+      <c r="BC65" t="str">
         <v>_x0001__x0002__x0003_</v>
       </c>
-      <c r="BF29" t="str">
+      <c r="BD65" t="str">
         <v>FWI-SL-01\02:</v>
       </c>
-      <c r="BG29" t="str">
-        <v>,E_x0017_4_x0008_</v>
-      </c>
-      <c r="BH29" t="str" xml:space="preserve">
-        <v xml:space="preserve">S&gt;
-_x0008_</v>
-      </c>
-      <c r="BI29" t="str">
+      <c r="BE65" t="str">
+        <v>,K_x0017_4_x0008_</v>
+      </c>
+      <c r="BF65" t="str" xml:space="preserve">
+        <v xml:space="preserve">U&gt;
+_x0008_</v>
+      </c>
+      <c r="BG65" t="str">
         <v>19624:</v>
       </c>
-      <c r="BJ29" t="str" xml:space="preserve">
-        <v xml:space="preserve">(R_x000e__x001e_
-_x0008_</v>
-      </c>
-      <c r="BK29" t="str">
-        <v>_x0010__x0005_-R</v>
-      </c>
-      <c r="BL29" t="str">
+      <c r="BH65" t="str" xml:space="preserve">
+        <v xml:space="preserve">(N_x000e__x001e_
+_x0008_</v>
+      </c>
+      <c r="BI65" t="str">
+        <v>_x0010__x0005_-N</v>
+      </c>
+      <c r="BJ65" t="str">
         <v>:</v>
       </c>
-      <c r="BM29" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0007_N'0
-_x0008_</v>
-      </c>
-      <c r="BN29" t="str">
+      <c r="BK65" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0007_Q'0
+_x0008_</v>
+      </c>
+      <c r="BL65" t="str">
         <v>01224475178</v>
       </c>
     </row>
-    <row r="30" xml:space="preserve">
-      <c r="A30" t="str" xml:space="preserve">
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000b__x0004_8_x000e__x001a_
 _x0008_</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
+    <row r="67">
+      <c r="A67" t="str">
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="32" xml:space="preserve">
-      <c r="A32" t="str">
-        <v>_x0003__x000e_'T$+U</v>
-      </c>
-      <c r="B32" t="str">
+    <row r="68" xml:space="preserve">
+      <c r="A68" t="str">
+        <v>_x0003__x000e_'V$+W</v>
+      </c>
+      <c r="B68" t="str">
         <v xml:space="preserve">3303  </v>
       </c>
-      <c r="C32" t="str">
+      <c r="C68" t="str">
         <v>_x0001__x0002__x0003_</v>
       </c>
-      <c r="D32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E32" t="str">
-        <v>Q_x0003__x000e__x0016__x000d_</v>
-      </c>
-      <c r="F32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G32" t="str">
+      <c r="D68" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E68" t="str">
+        <v>T_x0003__x000e__x0016__x000d_</v>
+      </c>
+      <c r="F68" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G68" t="str">
         <v>2_x0016_+</v>
       </c>
-      <c r="H32" t="str">
+      <c r="H68" t="str">
         <v xml:space="preserve"> 026/214  </v>
       </c>
-      <c r="I32" t="str">
+      <c r="I68" t="str">
         <v>_x0001__x0002__x0003_</v>
       </c>
-      <c r="J32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K32" t="str">
+      <c r="J68" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K68" t="str">
         <v>;&amp;_x0005_</v>
       </c>
-      <c r="L32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M32" t="str" xml:space="preserve">
+      <c r="L68" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M68" t="str" xml:space="preserve">
         <v xml:space="preserve">(_x0015_
 _x000c_''
 _x0008_</v>
       </c>
-      <c r="N32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O32" t="str" xml:space="preserve">
+      <c r="N68" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O68" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0003__x000e__x0014_9
 </v>
       </c>
-      <c r="P32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q32" t="str" xml:space="preserve">
+      <c r="P68" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q68" t="str" xml:space="preserve">
         <v xml:space="preserve">?_x0014__x0017__x0004_A
 _x0008_</v>
       </c>
-      <c r="R32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S32" t="str" xml:space="preserve">
-        <v xml:space="preserve">E_x0011__x0004_'
-_x0008_</v>
-      </c>
-    </row>
-    <row r="34" xml:space="preserve">
-      <c r="A34" t="str">
-        <v>205/050/743</v>
-      </c>
-      <c r="B34" t="str">
-        <v>_x0001__x0002__x0003_</v>
-      </c>
-      <c r="C34" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0004__x0005__x0006__x0007__x0008_	
-</v>
-      </c>
-      <c r="D34" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x000b__x000c_
-_x000d__x000e__x000f_</v>
-      </c>
-    </row>
-    <row r="35" xml:space="preserve">
-      <c r="A35" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0011__x0012__x0005__x0013__x0014_	
-</v>
-      </c>
-      <c r="B35" t="str">
-        <v>2</v>
-      </c>
-      <c r="C35" t="str">
-        <v>/</v>
-      </c>
-      <c r="D35" t="str">
-        <v>2</v>
-      </c>
-      <c r="E35" t="str">
-        <v>_x0001__x0002__x0003_</v>
-      </c>
-      <c r="F35" t="str">
-        <v>_x0004__x0005__x0006_</v>
-      </c>
-      <c r="G35" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0007__x0008__x0004_	
-_x0008_</v>
-      </c>
-      <c r="H35" t="str">
-        <v>_x000b__x0003__x000c__x000d__x000e__x000f_</v>
-      </c>
-      <c r="I35" t="str">
-        <v>_x0001__x0002__x0003_</v>
-      </c>
-      <c r="J35" t="str">
-        <v>421159306</v>
-      </c>
-      <c r="K35" t="str">
-        <v>_x0010__x0011__x0004__x0012_</v>
-      </c>
-      <c r="L35" t="str">
-        <v>_x0013__x0014__x0015__x0016__x0017__x0008_</v>
-      </c>
-      <c r="M35" t="str">
-        <v>_x0018__x0019__x000c__x000f_</v>
-      </c>
-      <c r="N35" t="str">
-        <v>_x0010__x001a__x001b__x001c__x0005_</v>
-      </c>
-      <c r="O35" t="str">
-        <v>_x001d__x0003__x000e__x0014__x0005_</v>
-      </c>
-      <c r="P35" t="str">
-        <v>_x000e__x001c__x001e__x0017__x000c__x0002_</v>
-      </c>
-      <c r="Q35" t="str">
-        <v>-</v>
-      </c>
-      <c r="R35" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0015__x001f__x000e__x001c_ 
-_x0008_</v>
-      </c>
-      <c r="S35" t="str">
-        <v>!</v>
-      </c>
-      <c r="T35" t="str">
-        <v>048\590050-590051</v>
-      </c>
-      <c r="U35" t="str">
-        <v>"_x0011__x000e__x000f_</v>
-      </c>
-      <c r="V35" t="str">
-        <v>048\590052</v>
-      </c>
-      <c r="W35" t="str">
-        <v>V_x0015__x0002__x000c__x000d_</v>
-      </c>
-      <c r="X35" t="str">
+      <c r="R68" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S68" t="str" xml:space="preserve">
+        <v xml:space="preserve">K_x0011__x0004_'
+_x0008_</v>
+      </c>
+      <c r="T68" t="str">
+        <v>X_x0015__x0002__x000c__x000d_</v>
+      </c>
+      <c r="U68" t="str">
         <v>:</v>
       </c>
-      <c r="Y35" t="str" xml:space="preserve">
+      <c r="V68" t="str" xml:space="preserve">
         <v xml:space="preserve">%,-_x001c_'
 _x0008_</v>
       </c>
-      <c r="Z35" t="str">
+      <c r="W68" t="str">
         <v>--------------</v>
       </c>
-      <c r="AA35" t="str">
-        <v>V_x0015__x0002__x000c__x000d_</v>
-      </c>
-      <c r="AB35" t="str" xml:space="preserve">
+      <c r="X68" t="str">
+        <v>X_x0015__x0002__x000c__x000d_</v>
+      </c>
+      <c r="Y68" t="str" xml:space="preserve">
         <v xml:space="preserve">2_x0015_'0
 _x0008_</v>
       </c>
-      <c r="AC35" t="str">
+      <c r="Z68" t="str">
         <v>:</v>
       </c>
-      <c r="AD35" t="str">
-        <v>BN$+4_x000e_F</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
+      <c r="AA68" t="str">
+        <v>BQ$+4_x000e_I</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
         <v>------------------</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:CX36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:CX69"/>
   </ignoredErrors>
 </worksheet>
 </file>